--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/36_Hakkari_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/36_Hakkari_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D1151F-BD66-473F-8BBA-76C2DDCBD3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC1A7B8-1678-4872-A3B6-10E28AF2E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="643" xr2:uid="{46A218E4-655F-4A82-9885-CDC7ADCC3DCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{7DDCF629-D75E-4D9D-BA88-7C95E3432B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="114" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{23A9DC36-AD31-4AF8-B77A-BC19ACFBCC96}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EEE3C46A-1559-4346-AB31-128612F3BB02}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{4455EA54-E07E-4595-B3A6-07D946DD0B25}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4E520C59-688A-4B6A-8E29-7E0AE0F6D1DE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CEB937D9-7CF4-43D1-9A58-04B87E9B842D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{EC23ABAB-74D4-4D66-9DC7-34A34882B5C2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2BECDD10-AF57-45E0-A9D6-2E2B450BCAD9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F80D111F-1D19-4A5D-945A-78EEA9030C31}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6A29AB79-0B88-4429-8B19-2ADE6F16E5C6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3757AC50-9193-4377-907A-2491B667C452}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1CF3A55B-8552-40FA-A8A2-98A8BB2E0DAD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D959BA1A-5D92-4F72-9917-05F9329B78CC}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D1BC1A9B-9A13-494A-B908-B22B2B27F4C7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F70E21A5-8235-4B18-AF63-51CAEF6BA584}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8CCE12-EDA5-4561-9811-987BB20F26B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AFA92-2EA7-4D61-8ECC-49B769ED5EBE}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2604,17 +2604,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{631ACA6C-D59B-4BAC-BFA1-2CB944D21A5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BD4E850-CE96-4D5D-8D28-E073F7C24B65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39E6FEB1-F5EE-42E7-A51D-AB5585136E0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A2FA033-6716-443D-86F1-D90AA1EEA929}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6852BD68-92F4-4D8C-8853-F27A627C7825}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF23E67F-1689-476F-8FD4-D962CFE3163B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1EE4040-E748-4DEF-BD33-7712CF895C47}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C82F44A4-678E-46AD-B418-1319EC59DD17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2B9DBF2C-1D5D-4A5F-8C36-9EC6AD1F3E61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{54EFF31B-92E7-42E9-A74C-AAA4130A29FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C14E665-C292-4414-86FB-8AA3EC834B70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DC43B1E-5B7D-474B-AA77-1D34DA6281AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B32072E7-E71E-4B89-B25B-822F7A96BF0B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DFF6645-C868-40EC-9666-988B1EA17862}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E667C4A9-AA73-4FDB-B182-41E5486D1FD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{009A2C26-7DD7-4323-BAAF-FC9022428CED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E71743A3-B398-4601-B53D-C04C8F1A14D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB4EEC05-1357-4DEC-99FF-B1755DFA8E22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{341ADAF1-1326-40C8-9C54-176EB5AD52AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{82B9FA8F-D83F-442A-B711-01489CBBC6E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1E5F74C2-E21A-490A-AF89-019776FC239E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17A4F475-0314-411D-B37A-4928CD2C37FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2627,7 +2627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC372F6-DDF2-4AA4-81B6-84269AB8576C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F424A-EE27-46C2-B955-B0F634773BDB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3869,17 +3869,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD9BADB8-C13D-438F-AC80-54313445A1FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DC7284C-022E-48B0-9091-5DD1534C057B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CB03EC6-2C57-4BE5-8268-C96992629DF1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB01C998-75EF-435E-BA73-0CFCE4141D37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D24ECB1-3F48-4536-A701-1C78C07034B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0DAAE2C-8473-497D-BE68-42AF3C6AE6D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94A85E8F-2280-4994-96D7-E9D40D3687C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2C5F21F-AEAB-488F-8AE4-25AA6854B4E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DAC17755-3945-4D67-B346-4F0EE8989A6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BDE9AB55-34BE-4FF4-BC93-35732CB42DC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC2E1B81-7747-4239-AB6D-59F847CD6144}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5857A67-CCA6-4DF6-A730-1FD1F1271834}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA795A53-33D5-4FAA-AFCC-0E073847FBF1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCC38FED-9DD5-4E2F-BD73-E81326E6E600}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB4B707D-7239-49D0-9F43-37A336FB9D85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75EF44B-E3DF-467B-AAFA-A0BC17EAE876}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF58D424-A0DD-4260-B206-7B303D4C051D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F23A52E-997D-43B3-A689-8853E217898F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F24DEC6-E0DC-4893-AB71-452FF591E11E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E495F4F4-3D7F-4966-862E-26474251A55E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D9DB5CB9-BFA2-4378-B552-0433192904D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B76CD416-53C3-42E9-816D-76D641308A09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3892,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BB9148-D0BB-4FE1-A4FE-950B5BBEECC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA8DAAE-05F6-4D48-ACF0-4D38690554E9}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5130,17 +5130,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDC51D09-6DD9-413C-A55D-6A0AABAD3567}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50E11D23-B3BE-4F9C-800A-BC5CCD7DBA6C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67FEABF6-638B-4EF8-928A-7C2845D56F7D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F5D7B94-E14E-478A-87F3-A2D9C26D3D7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2CA37F3-4BF0-466B-868F-01F78D714AF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A0C9424-6FC6-4DA7-BB64-8C36C2147570}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4AEC344-541E-4507-8806-9A7399444E24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5864C6E9-BC65-40A5-81BE-6A192C794112}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CD3FA11C-AD30-448E-958B-65E4684E0E7F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D8EBD1C6-4CCF-4946-A8E9-711D7B8D31A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{147F727C-34E6-4DEA-A232-34C3CE4DE4C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF5D161D-0C8C-4229-BBD4-C374AE110619}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF8B6263-42BD-417F-90BE-3508C0FDBA90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06BEBC5F-AC6C-435C-B479-C6A091963DA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF1A1065-B482-46AC-AA05-9941923DE031}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B81434D6-0467-4A5C-B5CE-F8A619ACF56A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEB844E6-C331-457E-9ED5-74A74662A2CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52E4B55C-5F0A-4E33-B357-D6DF250D38A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F40168E6-B6C6-4143-8B65-89AA54A2453B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AB0CB112-2310-4AD0-95F3-1D71DA7C3BC4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14CE41BA-C998-4394-9AAE-5AAAED3AB9C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36E2840E-7DCB-49AC-963F-3C35460DB738}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5153,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4C7B3-3621-488D-9479-AD7447BB7764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF06F560-6595-42EE-8442-60E2AE8DB79D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6387,17 +6387,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B3B88B4-38CC-4C5C-B485-8C7218AA48F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC20704D-C6C0-41B1-A326-782E416C5371}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B72EB88-3776-4AF6-B318-6D7A954A9C45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A3238F3-930C-4CDB-9D66-6757AA868167}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7570783A-251C-485B-8B9F-0DABAB7248D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FABF3929-0819-40B2-A1BC-D1360310323B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD79C37F-290C-4540-B8CF-19D9E8EDBE54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBC58325-BF7E-4329-A361-FF0F4DB78A82}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3C06EDD2-6776-480D-9C23-13A6CCFBAD28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{75E013AF-70EE-4046-88D2-7921004F70E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6F4CE61-443E-4584-91A2-F70985E896B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3769DA59-F05D-4FCB-9B8C-9C35901044EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07AF102F-9A17-4E70-8D32-5DA784104C7E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{838E0FFD-20C7-48A4-ACEB-572800462E2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77A56C4A-0E99-443D-ADAE-CB0A1602593F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C43913FA-36EB-445D-8DFC-8EC8FDD98E63}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E44B393-780A-4C7A-9A9E-64DCB3190AA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59A478D7-AC0C-4199-9180-72A83B96DC71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{950F77A0-3E9B-47F9-AA67-786CB3EB5E88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{16EC14E4-46AD-489B-91A8-807AA62E6447}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E0E7D94-17A0-4B0D-85D9-5E5F6A01690D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AA5732B-FDB3-4D62-9F92-DEBB8525448A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6410,7 +6410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977CB4E6-166B-4EBE-BAEB-2AA618025204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71636092-F9E4-4F54-8646-7039367180E2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7661,17 +7661,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC076394-A225-4301-94A2-6AB21E7CA13F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A884E301-004E-4017-A9FC-F26EE978D053}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EADF5ACC-ED3E-4993-B497-31A2FB86A420}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C394BFC-BC63-4C2A-AF6E-FD6C4ACA6FE3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5DF37E0-3DD3-4C0F-92FC-D98DCC59048A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9F505D9-DA2B-4708-9221-D1EBD3508AF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDD87EEB-7D26-4257-BFC2-2D13FC4BE2F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F08067A-9456-4CCB-8C52-7A05DFDD4928}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{463BAA5C-AA4C-47F5-A6C3-965083082FAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F939036C-8477-4A5D-BD27-B12AAD5139B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A23157F-04E6-406B-9987-6E07564829AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6E3E357-187D-4E7E-84B8-A6F28A6290EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA8EA6C8-B6E7-43B7-8472-96C9E39F8049}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6568237-28E0-4AA7-A42D-E48D6F187B78}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8DE3F2DC-AD34-4049-984C-114A29ADEE09}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AAFD148-CA59-42E7-8CF4-97AB9289551C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76E49CE6-44D5-4154-BDC1-5D850500D9F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B0D256E-76ED-4DAA-BDB8-AADADD835991}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFA6DAF0-B601-4ECB-9835-5A628F073F60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D87B01E3-904F-453A-B7A7-7566889A8557}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{342B383A-6926-4A47-A747-9E39E09234C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE0DDAA8-1CC0-4CB1-B1B0-ACD3D6303FC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7684,7 +7684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2483C00-72EC-46B2-BA8E-55CCF43850B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83622430-994A-43A0-93E2-DFDBCAE2C19F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8935,17 +8935,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64944CEA-1D6E-424B-9AD7-AF2B8328F72F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D5ED1A6-4DAB-427D-8FA3-A65BA877790D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C3E429B4-0A13-47E9-A0A3-986E520E22D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2124DCF3-B8AE-436E-9BE8-49B1632F583C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC706438-3170-41C5-9BA8-06BC0DB7543E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{337F16E4-1924-40E3-B1DA-95999FF94811}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C236F185-4295-487C-9C50-E6FF1A59EA72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40C67FCA-EBBF-4C40-B0AD-AECA8A191D55}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{668B0908-B239-4D1C-9C6C-90DABAE0A435}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A80A8CA8-0555-4855-975F-FF8F52A08F71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB4E7054-0471-426A-838B-E91CD38E2315}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CBF84EA-C8B7-4A08-82C3-B6B3580BA43B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59B1EE91-9893-450B-9EFC-429DEC78D043}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04D02E8D-871C-4F18-AE64-E00EBC2AE70B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DFFC6C7-E409-4A8D-B3C0-D0B9E72107B3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2889D1B5-BD94-41F9-85D5-E4A0F310C226}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBD36941-51A0-458D-B30B-B0CF3DB1BDF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{743D5E79-A562-4A0A-B82E-E5D229F3FC0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B2C92BD-7E98-4855-AF35-62059C0F466A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{18DA808D-765C-42E0-9A29-70B35E8A60DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{41A31C92-AE85-40F2-A438-42CA7FAD1678}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13E767C7-0CF3-4FE1-9256-D186426737EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8958,7 +8958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF255AF-F10F-49EF-AFA1-D3B7DDCDED82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6401E50-3CE4-402E-B785-B0CF146F23D6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10205,17 +10205,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8542EBA-03CD-41C6-BFF4-A87675DAE932}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9294E889-2CFA-4DDE-B892-F9AFB4DE095D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{84A420D3-18E3-4B5D-85EA-63F7FAC1CDC8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A35C5BE4-03B3-4534-B7E0-6E63F9317982}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{815E16A1-ECB9-451E-95A0-114D25225B33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{969E93A0-0E1F-458F-B188-2B54B16714E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7372A3DA-57F3-456E-A726-3F77D18D048F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{002A66EE-94E9-4A21-8ADC-918CADDEC6E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3B4F411F-27F2-4A88-BAC0-6EEEEA522965}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{37970F19-9D20-4512-9F50-8910875408A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DD1E1A3-4210-49C8-AB81-F359B32427FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B379774-F93C-4A99-BB79-318EA831192A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1034863-3B9C-4091-AAE0-AD1CC323D288}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81ED66B8-9545-4D15-9CD8-7902365D874D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A16A13D0-1A9F-4E92-A8C2-A8FA5C4B835B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7914128-019C-40EC-BDE9-54C4C8136F2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0570D488-CBAA-4245-BFEC-D5F7F50CC602}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFA13513-7E98-44AD-A57D-5685FC5B21E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5EC0B3B8-6E48-4D8B-9933-32BF811DF3F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E61050FA-3BEA-40E9-87A6-F39CE1042EE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD66834F-C844-4AAC-8A21-10883A0B0997}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFE7490A-784B-4221-8703-0BC148ED1727}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10228,7 +10228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957717E-9590-4AD3-8CC7-69886B4F3597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CAA3C9-EFA2-4FB7-BAFD-A2779BD7CD4B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11475,17 +11475,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91C52F68-DF37-4000-BAB8-57D6D17FBDBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BA30295-5838-442A-8D09-21A7E42E18E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17BDA480-43D7-40D4-9164-AAE298D3BE48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{817244BD-8E64-4A2D-9862-030C3C140AE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0577EDE0-8C94-457E-BBAA-EB6B68DA96C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6563F9A-23C9-48F4-9424-C6CBAB99C5F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02F72798-D7D0-43E5-AFC9-C70BDCEC01C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28A58E26-717B-4F56-9261-74927BCB961E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A8EF79ED-F8E9-4DF0-976B-A474AFE58571}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FB1F3F3B-AEC3-4CB9-8AFF-000631E1F640}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1CC9828-FABB-489B-8347-FDD9CC89656F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EB85D5D-AAE0-45FB-B4EF-16029D961217}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC12705A-C7C1-44AD-9A11-FA7AD56C1D43}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24E1C5C4-9CF8-4062-B054-E72F3CEA94FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D85A0013-697C-45F8-8424-342AACB77879}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03806A5F-F238-497F-9A28-720FAB2499E1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB3E15E8-2AEC-4CE9-AD00-500C4D854E8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC23FB2B-4BB8-4FA2-896A-02325E52242A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C56CDCBD-B6CC-4D31-A421-CE44466D13C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E597C509-8279-409E-9CA6-9B58A430BBD5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2DB9F336-751E-4B63-B9AC-BDD5B289DEF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6393F03-BA46-4756-A5BB-2AF8C466D78A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11498,7 +11498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE646B3-9102-4ADF-BE4B-FE12EFD5B4D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF7F4E9-50C4-4239-AE55-A81F70C76A32}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12745,17 +12745,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A71DB93-0751-4CE9-AFBF-559DCA40CE46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B4C55F6-B4FA-480A-9BFD-E07C94761D43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61C1F6EF-2380-42CC-BA65-065B5DCFFE52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CEAB5A2-C85A-4003-84C3-8FD8EE3F9523}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CB899B8-14B0-40C1-A33D-DC52B2819010}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA2FA9F2-4374-4938-9D61-1F544EEE5C6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{319D5DF7-FCE5-4509-B98E-987E699C566C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63229782-F2C0-4F87-A0B5-7C51117FD28C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7A82A64B-CEAB-4692-984A-3143502A2D1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B79DE8D4-1C6B-47F2-92E4-7FDF8B0CC6C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17620A9C-6C72-4D59-8DA8-802A20BF36CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E16E9CAF-08EB-4402-83B4-77E83BD13AD2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{988409CD-A1E2-437D-8965-3A986C9880BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC032CE2-5368-4380-B3D0-1C31A5FA3038}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98123376-8197-4ABC-99E6-9249D52B2598}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16962301-B3E5-44BB-BAB3-8C0E4ACDFDD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45530927-D08B-4134-9625-BDEE30780425}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26879713-DAF8-47D4-9881-42088AAE88B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BF3C15E-CE5D-45A5-B5E6-8A01195B3502}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D48274C-D2BB-4841-9C36-A98CECF6660E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AE663BC0-9B09-4C27-B0DD-AAEE73E76CD6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47D206FD-C767-4555-A428-3183976229E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12768,7 +12768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0775EA4-2842-47C3-8590-75856D29CF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E86C5B-5761-4FCF-8298-0C0FD92BC9F9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14015,17 +14015,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5DA6791-4821-4BA7-9EFA-0F5D61E70D08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61179928-DFAD-4EF5-AB4F-75A39697E1D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0706D5EF-85C9-47C4-AF76-C10F8D0138F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7936860-0DFF-4918-A981-B720C9A2C103}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{077FB3EA-8BC6-486D-B42A-6786811BBC70}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94BEC391-73F0-41AA-BAFC-EA5D9FD12558}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EA195AA-F6F0-4406-90D7-14473E591C27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B9861C9-EC35-4100-A791-0B673539CB26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C83A210E-3EA4-4A74-BB25-7C997B268B6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5F80A13A-B79F-40E7-8D0B-A8B808DFF702}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBF1B4F4-3493-4F7C-85BF-BE79F8D62C3D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAB26EE1-DFBE-4149-A5BE-CD1271EE5825}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60844A00-D27D-4687-B621-A5D95858709B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8FFE5A84-722B-43CB-BE8D-8C17E8EDCCCD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D80186D-DD23-4561-9817-70686432CFA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{555BED62-32F8-4EBB-8CF3-63E50DC00F17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE40C5A2-2ECE-4769-A49F-D1B5E5DB394D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDF3C2FD-A7F1-4524-88C4-F27FE299DB22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C88258D7-11CC-41AE-B193-8CBDFDD375A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{28E9DDF9-1079-4414-B730-8EED1BEFD2D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5698BE1A-1C06-4B68-B750-07A21CE939C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3CD7E01-76D5-4152-8132-5224ED035150}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14038,7 +14038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C08B985-A852-4800-8C2A-E2D4F07BDCAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0877DF0-95B6-4AE6-9DE5-9D110BFA7EC3}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15286,17 +15286,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB427562-4D5C-4CF5-BF56-8939AAF567F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{616C3023-A197-44A1-B513-93A8DACF9F85}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E3B2FB7-D59E-4C4B-B498-D4E0944B2232}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12226980-078D-4B04-B49E-C64C101D712A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F068E92E-60A9-4470-A274-FCA818378B6F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32078CE6-D36D-4601-87A9-7590C70EE410}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B581D447-34C8-44CF-8DCA-66DEDBB078F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FACB2C9-E1E2-4D0A-A744-4B04BD5C9140}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B7EF6B7-56CF-403B-A623-D213B13401D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CD664FCB-AAA7-4B7C-99C7-4F907661BD85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CAE9A76-A4FE-4A15-80DF-2E4B8F012E9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2848301-667A-4F5F-B1D6-15537CE1C347}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A14B8E95-77EA-4E1E-8F8A-4865D5A32280}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25F84203-331B-4163-9300-34FE165623CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D082198-3DB3-4365-9EE5-5469E3D95744}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{151B2295-08E2-4BF0-8E34-0909514F97BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99BE12A9-7ED0-41D0-A4A0-F009CB206E3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98DFA150-1156-48CE-AC98-9D248EF2AF8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A20E50C1-6949-412E-ABCB-C485F706D756}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F2612539-7986-40B7-AAEF-064A505C8112}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CFBA8BF9-18D8-4F51-B3F8-455B05A7C2E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CECAB642-A175-4608-9EEA-186D1177B8B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15309,7 +15309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157584AB-C40E-4E3B-BF80-53DD2617B724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C823B19-B353-4C0F-8FF9-9996F2377EE9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16557,17 +16557,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1D48E08-BAFA-46BC-A7B6-0767C3FD7D81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD0A2DD5-1573-46E1-8100-3F337D944737}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5927272B-2FF1-4ABE-A675-B2CA3AB3DF30}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{930DC0A8-CF5F-4500-A2E2-EBFB56198377}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14349A68-D036-48B7-9E98-913CED91C7C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A97BCFA-09FB-490A-A106-DEAD3DA2E835}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9642794B-95A4-4627-A5D8-4D04ECE6A4BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6CB2F96-D7B4-464A-9AED-CB5F5FDEE7B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{59C1B3A8-94C5-4C8C-BFF8-EBF508C69190}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{46E06900-CB1C-41E0-BE0E-507867A369E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EF3F7E5-85EE-4DFC-849A-E3DCCFD4E5C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C472C0-1D7F-46E5-96E1-233246622DA1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A27B5884-7526-481C-AFA3-98753B899948}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F7A4C78-225B-4D5E-A5DE-A71CB48422D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B8769A4-C28D-4B62-B92D-40D599CE8FF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{817E3AD2-5F68-4D76-8698-1AAB869802BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1EA62C1-8903-4B1D-84A9-3D7480EF450F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D0CEFCA-43D0-4FD8-B597-6DBF18FC8181}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AFCB265-B08E-4151-9CC1-845AC9AD8F51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7ED7AA24-99EE-4366-84AA-8CAFAABA604E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7DF90BD3-108F-49A4-A3C0-2F2239521C14}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6238905-1903-49C1-A5A9-08342DB31947}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
